--- a/Cronograma-2025-01-01-2025-01-30.xlsx
+++ b/Cronograma-2025-01-01-2025-01-30.xlsx
@@ -8,6 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Juan" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Jose" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Pepe" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Maria" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Camilo" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Edwin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Karol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Sara" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Sofia" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Sergio" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -574,122 +585,122 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Camilo</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Karol</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Pepe</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Karol</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>Ana</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Edwin</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Karol</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>Pepe</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Karol</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>Ana</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Sergio</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Camilo</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Camilo</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Pepe</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Sofia</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Jose</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Camilo</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Karol</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Pepe</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Camilo</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Sofia</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Edwin</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Maria</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>Ana</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Pepe</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>Edwin</t>
         </is>
       </c>
     </row>
@@ -731,107 +742,107 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Camilo</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Pepe</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>Karol</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Pepe</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>Maria</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Camilo</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Sofia</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Edwin</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Sofia</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Camilo</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Sergio</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>Pepe</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Ana</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Camilo</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Sofia</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Camilo</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Karol</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -883,122 +894,122 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>Camilo</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Pepe</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Edwin</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Sara</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Camilo</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Camilo</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Pepe</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Edwin</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Sergio</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Pepe</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Karol</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Sergio</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>Maria</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Karol</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>Ana</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Sofia</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Edwin</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Sergio</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Pepe</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Edwin</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Sergio</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Edwin</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ana</t>
-        </is>
-      </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Camilo</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1040,122 +1051,122 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>Edwin</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Edwin</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Maria</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Karol</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Camilo</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Sofia</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Pepe</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Edwin</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Edwin</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
         <is>
           <t>Karol</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Ana</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Ana</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Camilo</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Edwin</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Edwin</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Sergio</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Karol</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Ana</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Karol</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Karol</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>Sofia</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>Camilo</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
@@ -1197,127 +1208,3284 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>Camilo</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>Karol</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Edwin</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Sergio</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Edwin</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Pepe</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Karol</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>Camilo</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>Sara</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t>Juan</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Sofia</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Jose</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Edwin</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>Pepe</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Ana</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>Maria</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>Karol</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>Camilo</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Karol</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Edwin</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Sara</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Sofia</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>Sergio</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Ana</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Pepe</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>Jose</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Maria</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Edwin</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>Karol</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>Camilo</t>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Noche</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descansos</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>45675</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="Y1" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="Z1" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="AA1" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="AB1" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="AC1" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Noche</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descansos</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>45675</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="Y1" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="Z1" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="AA1" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="AB1" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="AC1" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Noche</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descansos</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>45675</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="Y1" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="Z1" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="AA1" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="AB1" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="AC1" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Noche</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descansos</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>45675</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="Y1" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="Z1" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="AA1" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="AB1" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="AC1" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Noche</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descansos</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>45675</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="Y1" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="Z1" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="AA1" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="AB1" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="AC1" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Noche</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descansos</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>45675</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="Y1" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="Z1" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="AA1" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="AB1" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="AC1" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Noche</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descansos</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>45675</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="Y1" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="Z1" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="AA1" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="AB1" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="AC1" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Noche</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descansos</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>45675</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="Y1" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="Z1" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="AA1" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="AB1" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="AC1" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Noche</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descansos</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>45675</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="Y1" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="Z1" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="AA1" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="AB1" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="AC1" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Noche</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descansos</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>45675</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="Y1" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="Z1" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="AA1" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="AB1" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="AC1" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Día</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Noche</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Descansos</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>45661</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="N1" s="2" t="n">
+        <v>45668</v>
+      </c>
+      <c r="O1" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="P1" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="Q1" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="R1" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="S1" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="T1" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="U1" s="2" t="n">
+        <v>45675</v>
+      </c>
+      <c r="V1" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="W1" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="X1" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="Y1" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="Z1" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="AA1" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="AB1" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="AC1" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="AD1" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="AE1" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="AF1" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="AG1" s="2" t="n">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Puesto 3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Puesto 1</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Puesto 4</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Puesto 2</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Puesto 4 noche</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
